--- a/hardware/TSAL LED/Project Outputs for LED STRING/LED STRING.xlsx
+++ b/hardware/TSAL LED/Project Outputs for LED STRING/LED STRING.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPOS\MOTORSPORT\TSAL\QUTMS_TSAL\hardware\TSAL LED\Project Outputs for LED STRING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\QUTMS_TSAL\hardware\TSAL LED\Project Outputs for LED STRING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D41765C9-70E2-45FD-9180-5FB72888F8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB041ED9-5123-4BD7-92F3-8053EEB6566F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10044" yWindow="2268" windowWidth="2388" windowHeight="564" xr2:uid="{F841BD12-FA54-4270-BBA4-5E9B51DA533E}"/>
+    <workbookView xWindow="7710" yWindow="4290" windowWidth="38700" windowHeight="15435" xr2:uid="{F196645F-4BF8-4EF1-9053-DE1A60189373}"/>
   </bookViews>
   <sheets>
     <sheet name="LED STRING" sheetId="1" r:id="rId1"/>
@@ -469,17 +469,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7AF1B1-5AB3-4069-8F8A-78E81FDDF3FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F95A32-6CE5-4C2E-B54B-F33EE88BF318}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="19" customWidth="1"/>
+    <col min="1" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -499,7 +499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -519,7 +519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -561,6 +561,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>